--- a/svbWebPaymentUsers/QA/dump-qa-user-account.xlsx
+++ b/svbWebPaymentUsers/QA/dump-qa-user-account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="36900" yWindow="1700" windowWidth="23220" windowHeight="17720" tabRatio="500"/>
+    <workbookView xWindow="-72300" yWindow="960" windowWidth="27420" windowHeight="13500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="qa usr acct Mark" sheetId="2" r:id="rId1"/>
@@ -1149,8 +1149,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1199,7 +1213,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1217,6 +1231,13 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1234,6 +1255,13 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1566,8 +1594,8 @@
   <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/svbWebPaymentUsers/QA/dump-qa-user-account.xlsx
+++ b/svbWebPaymentUsers/QA/dump-qa-user-account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-72300" yWindow="960" windowWidth="27420" windowHeight="13500" tabRatio="500"/>
+    <workbookView xWindow="69120" yWindow="11440" windowWidth="23860" windowHeight="8540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="qa usr acct Mark" sheetId="2" r:id="rId1"/>
@@ -1126,7 +1126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1136,6 +1136,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,7 +1155,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1199,8 +1205,82 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1212,8 +1292,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="123">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1238,6 +1322,43 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1262,6 +1383,43 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1593,9 +1751,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26:G26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1639,22 +1797,22 @@
       <c r="A2" t="s">
         <v>356</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>5030870</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="6">
         <v>1100798</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="6">
         <v>20100167</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="6">
         <v>2102897</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -1665,22 +1823,22 @@
       <c r="A3" t="s">
         <v>356</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>5030870</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="6">
         <v>1100798</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="6">
         <v>20100175</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="6">
         <v>2102896</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -1691,22 +1849,22 @@
       <c r="A4" t="s">
         <v>356</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>5030870</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>1100798</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
         <v>20133790</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <v>81325842</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
